--- a/e2e/BudgetingAppTestCases.xlsx
+++ b/e2e/BudgetingAppTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msunkara/budgeting-sample-app-webpack2/e2e/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knakka/Desktop/BudgetTestApp/e2e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4ACD7D19-D396-334F-B1C8-80280931460B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E9FC62-8D8B-9846-8F8A-0ACD326E5B69}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
   <si>
     <t xml:space="preserve">Reports </t>
   </si>
@@ -145,33 +145,15 @@
     <t>User can scroll through budget items, when there are more items beyond the viewable table</t>
   </si>
   <si>
-    <t>When user chooses Income under category, the amount is added to Total Inflow</t>
-  </si>
-  <si>
-    <t>When user chooses any category other than Income, the amount is added to Total Outflow</t>
-  </si>
-  <si>
     <t>Total Outflow is always red</t>
   </si>
   <si>
     <t xml:space="preserve">Total Inflow is always green </t>
   </si>
   <si>
-    <t>Inflow amounts are green and positive</t>
-  </si>
-  <si>
-    <t>Outflow amounts are red and negative</t>
-  </si>
-  <si>
     <t>Value textbox only accepts numbers and e</t>
   </si>
   <si>
-    <t>User can enter +/- before a number in the Value textbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User can add a large Value </t>
-  </si>
-  <si>
     <t>User can add a decimal number, including a decimal Value less than $1</t>
   </si>
   <si>
@@ -220,21 +202,6 @@
     <t>Performance</t>
   </si>
   <si>
-    <t>1. Choose a category from drop down; anything except Income 2. Leave description blank or enter a short description 3. Enter a number in the last textbox 4. Click Add</t>
-  </si>
-  <si>
-    <t>1. Choose Income from Category drop down 2. Leave description blank or enter a short description 3. Enter a number in the last textbox 4. Click Add</t>
-  </si>
-  <si>
-    <t>Information typed in the textboxes shows up in the table above</t>
-  </si>
-  <si>
-    <t>The new Amount value is shown in green</t>
-  </si>
-  <si>
-    <t>The new Amount value is shown in red</t>
-  </si>
-  <si>
     <t>The new Amount is added to the Working Balance</t>
   </si>
   <si>
@@ -262,18 +229,6 @@
     <t>P1</t>
   </si>
   <si>
-    <t>1. Choose Income from Category drop down 2. Enter a number in the last textbox 3. Click Enter on keyboard</t>
-  </si>
-  <si>
-    <t>1. Choose any category except Income from drop down 2. Enter a number in the last textbox 3. Click Enter on keyboard</t>
-  </si>
-  <si>
-    <t>1. Choose Income from Category drop down 2. Enter a number in the last textbox 3. Click Add</t>
-  </si>
-  <si>
-    <t>1. Choose any category except Income from drop down  2. Enter a number in the last textbox 3. Click Add</t>
-  </si>
-  <si>
     <t>1. Choose any category except Income from drop down  2. Enter a Value to make the total outflow higher than total inflow 3. Click Add</t>
   </si>
   <si>
@@ -286,18 +241,6 @@
     <t>1. Choose Income from Category drop down 2. Enter a Value to make the total inflow higher than total outflow 3. Click Add</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Check the value for Total Inflow 2. Choose Income from Category drop down 3. Enter a Value to make the total inflow higher than total outflow 4. Click Add </t>
-  </si>
-  <si>
-    <t>The new Amount is added to the Total Inflow in step 1</t>
-  </si>
-  <si>
-    <t>1. Check the value for Total Outflow 2. Choose any category except Income from drop down  3. Enter a Value to make the total outflow higher than total inflow 4. Click Add</t>
-  </si>
-  <si>
-    <t>The new Amount is added to Total Outflow in step 1</t>
-  </si>
-  <si>
     <t>User can add alphanumeric Description</t>
   </si>
   <si>
@@ -313,42 +256,9 @@
     <t>User can add a large Description</t>
   </si>
   <si>
-    <t>1. Choose Income from Category drop down 2. Leave Description empty 3. Enter a number in the last textbox 4. Click Add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Choose Income from Category drop down 2. Type only alphabets and/or numbers in the Description textbox 3. Enter a number in the last textbox 4. Click Add </t>
-  </si>
-  <si>
     <t>Information typed in the textboxes shows up in the table above, with a blank Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Table above shows the correct Description </t>
-  </si>
-  <si>
-    <t>Script is added to the table above</t>
-  </si>
-  <si>
-    <t>1. Choose Income from Category drop down 2. Enter &lt;script&gt;alert()&lt;/script&gt; in Description 3. Enter a number in the last textbox 4. Click Add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Choose any Cateogry, except Income 2. Put a '-' as suffix to a Value 3. Then click Add 4. Repeat with a '+' for Income </t>
-  </si>
-  <si>
-    <t>Amount shows the correct sign</t>
-  </si>
-  <si>
-    <t>1. Choose Income Cateogry 2. Put a '-' as suffix to a Value 3. Click Add</t>
-  </si>
-  <si>
-    <t>Amount doesn't show the minus sign</t>
-  </si>
-  <si>
-    <t>Amount has a minus sign</t>
-  </si>
-  <si>
-    <t>1. Choose any Cateogry, except Income 2. Put a '+' as suffix to a Value 3. Click Add</t>
-  </si>
-  <si>
     <t>1. Add items using the steps in the first case 2. Repeat until the new items can't be seen right above the textboxes 3. Now hover mouse over the table and scroll up</t>
   </si>
   <si>
@@ -370,9 +280,6 @@
     <t>1. Choose any Category 2. Enter a large numeric value eg: 12e307 or 12,000,000,000,000 3. Click Add</t>
   </si>
   <si>
-    <t>UI elegantly handles the large value, without breaking. Amount shows the correct large value</t>
-  </si>
-  <si>
     <t>Textbox only takes and displays numerical, decimal and exponential values</t>
   </si>
   <si>
@@ -380,21 +287,6 @@
   </si>
   <si>
     <t>The new Amount is $12.99</t>
-  </si>
-  <si>
-    <t>Either a pop-up asks user to enter valid Description or the script is not added to the item, to prevent security breach</t>
-  </si>
-  <si>
-    <t>1. Choose Income from Category drop down 2. Enter email address or website url in Description 3. Enter a number in the last textbox 4. Click Add</t>
-  </si>
-  <si>
-    <t>The new item shows the correct description</t>
-  </si>
-  <si>
-    <t>The new item shows the entire paragraph description</t>
-  </si>
-  <si>
-    <t>1. Choose Income from Category drop down 2. Enter a long paragraph (eg from a wikipedia article) in Description 3. Enter a number in the last textbox 4. Click Add</t>
   </si>
   <si>
     <t>1. Click on Reports 2. After the screen renders, click on Budget 3. Click on Reports</t>
@@ -488,6 +380,105 @@
       </rPr>
       <t>showing keyboard accessibility</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">After typing in a decimal amount, user can add inflow by clicking Enter key </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After typing in a decimal amount, user can add outflow by clicking Enter key </t>
+  </si>
+  <si>
+    <t>1. Choose any category except Income from drop down 2. Enter a decimal Value eg: 12.99 3. Click Enter on keyboard</t>
+  </si>
+  <si>
+    <t>1. Choose Income from Category drop down 2. Enter a decimal Value eg: 12.99 3. Click Enter on keyboard</t>
+  </si>
+  <si>
+    <t>1. Choose Income from Category drop down 2. Leave description blank or enter a short description 3. Enter a number in the Value textbox 4. Click Add</t>
+  </si>
+  <si>
+    <t>1. Choose a category from drop down; anything except Income 2. Leave description blank or enter a short description 3. Enter a number in the Value textbox 4. Click Add</t>
+  </si>
+  <si>
+    <t>1. Choose Income from Category drop down 2. Enter a number in the Value textbox 3. Click Enter on keyboard</t>
+  </si>
+  <si>
+    <t>1. Choose any category except Income from drop down 2. Enter a number in the Value textbox 3. Click Enter on keyboard</t>
+  </si>
+  <si>
+    <t>1. Choose Income from Category drop down 2. Enter a number in the Value textbox 3. Click Add</t>
+  </si>
+  <si>
+    <t>1. Choose any category except Income from drop down  2. Enter a number in the Value textbox 3. Click Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Choose Income from Category drop down 2. Type only alphabets and/or numbers in the Description textbox 3. Enter a number in the Value textbox 4. Click Add </t>
+  </si>
+  <si>
+    <t>1. Choose Income from Category drop down 2. Leave Description empty 3. Enter a number in the Value textbox 4. Click Add</t>
+  </si>
+  <si>
+    <t>1. Choose Income from Category drop down 2. Enter &lt;script&gt;alert()&lt;/script&gt; in Description 3. Enter a number in the Value textbox 4. Click Add</t>
+  </si>
+  <si>
+    <t>1. Choose Income from Category drop down 2. Enter email address or website url in Description 3. Enter a number in the Value textbox 4. Click Add</t>
+  </si>
+  <si>
+    <t>1. Choose Income from Category drop down 2. Enter a long paragraph (eg from a wikipedia article) in Description 3. Enter a number in the Value textbox 4. Click Add</t>
+  </si>
+  <si>
+    <t>1. Check Total Inflow's color 2. Choose Income from Category drop down 3. Enter a number in the Value textbox 4. Click Add</t>
+  </si>
+  <si>
+    <t>1. Choose Income Category 2. Put a '-' as suffix to a number in the Value textbox 3. Click Add</t>
+  </si>
+  <si>
+    <t>Amount is in red and has a minus sign</t>
+  </si>
+  <si>
+    <t>Amount is in green and doesn't show the minus sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income amount is added to the table and shows up in Green </t>
+  </si>
+  <si>
+    <t xml:space="preserve">expense amount is added to the table and shows up in Red </t>
+  </si>
+  <si>
+    <t>Total Inflow is displayed in green in step 1 and after step 4 and income is added to inflow</t>
+  </si>
+  <si>
+    <t>Total Outflow is displayed in red in step 1 and after step 4 and expense is added to outflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An alphanumeric description shows up in table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The script should be correctly encoded and displayed. The script should not run </t>
+  </si>
+  <si>
+    <t>The special character description shows up in table</t>
+  </si>
+  <si>
+    <t>The new item shows the entire paragraph in Description and does not break the UI</t>
+  </si>
+  <si>
+    <t>User can add a large Value for Amount</t>
+  </si>
+  <si>
+    <t>UI handles the large value, without breaking. Amount shows the correct large value</t>
+  </si>
+  <si>
+    <t>Outflow amounts are red and negative even when positive amount is entered with a + sign</t>
+  </si>
+  <si>
+    <t>Inflow amounts are green and positive even when negative amount is entered with a - sign</t>
+  </si>
+  <si>
+    <t>1. Check Total Outflow's color 2. Choose any Category except Income from drop down  3. Enter a number in the Value textbox 4. Click Add</t>
+  </si>
+  <si>
+    <t>1. Choose any Categorygry, except Income 2. Put a '+' as suffix to a number in the Value textbox 3. Click Add</t>
   </si>
 </sst>
 </file>
@@ -580,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -632,6 +623,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922EF7F9-D1B4-274F-A489-502B6D45407D}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8">
         <v>1.01</v>
@@ -1134,16 +1134,16 @@
         <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8">
         <v>1.02</v>
@@ -1152,765 +1152,748 @@
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>66</v>
+        <v>120</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="48">
-      <c r="A5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="8">
+    <row r="5" spans="1:6" s="20" customFormat="1" ht="32">
+      <c r="A5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="19">
         <v>1.03</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>78</v>
+      <c r="D5" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="48">
-      <c r="A6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="8">
+        <v>114</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" s="20" customFormat="1" ht="32">
+      <c r="A6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="19">
         <v>1.04</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>79</v>
+      <c r="D6" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="32">
+        <v>114</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B7" s="8">
         <v>1.05</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
+      <c r="C7" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="32">
+        <v>114</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B8" s="8">
         <v>1.06</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
+      <c r="C8" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="32">
       <c r="A9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="8">
+        <v>65</v>
+      </c>
+      <c r="B9" s="19">
         <v>1.07</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>69</v>
+        <v>130</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="32">
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="8">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19">
         <v>1.08</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="48">
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="32">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B11" s="8">
         <v>1.0900000000000001</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="32">
       <c r="A12" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8">
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="8">
+        <v>64</v>
+      </c>
+      <c r="B13" s="19">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="48">
+        <v>61</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="32">
       <c r="A14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="8">
+        <v>66</v>
+      </c>
+      <c r="B14" s="19">
         <v>1.1200000000000001</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B15" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B16" s="8">
         <v>1.1399999999999999</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="8">
+        <v>64</v>
+      </c>
+      <c r="B18" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>92</v>
+      <c r="C18" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B19" s="8">
         <v>1.17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B20" s="8">
         <v>1.18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="32">
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="48">
       <c r="A21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="8">
+        <v>66</v>
+      </c>
+      <c r="B21" s="19">
         <v>1.19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="48">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="32">
       <c r="A22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="8">
+        <v>66</v>
+      </c>
+      <c r="B22" s="19">
         <v>1.2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" ht="32">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B23" s="8">
         <v>1.21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" ht="32">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B24" s="8">
         <v>1.22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="32">
+    <row r="25" spans="1:6" ht="48">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B25" s="8">
         <v>1.23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="48">
       <c r="A26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="19">
+        <v>1.24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="8">
-        <v>1.24</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="48">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="32">
       <c r="A27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="8">
+        <v>66</v>
+      </c>
+      <c r="B27" s="19">
         <v>1.25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>107</v>
+        <v>145</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="32">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="33" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B28" s="8">
         <v>1.26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="33" thickBot="1">
-      <c r="A29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="8">
-        <v>1.27</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A30" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="17" thickBot="1">
-      <c r="A31" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A29" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="17" thickBot="1">
+      <c r="A30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" ht="32">
-      <c r="A32" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="14">
+    <row r="31" spans="1:6" s="9" customFormat="1" ht="32">
+      <c r="A31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="14">
         <v>2.0099999999999998</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="32">
+      <c r="A32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2.02</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="32">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B33" s="8">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
       <c r="A34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="8">
-        <v>2.0299999999999998</v>
+        <v>66</v>
+      </c>
+      <c r="B34" s="14">
+        <v>2.04</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="32">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="48">
       <c r="A35" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B35" s="14">
-        <v>2.04</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="48">
       <c r="A36" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B36" s="14">
-        <v>2.0499999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="48">
       <c r="A37" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B37" s="14">
-        <v>2.06</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="48">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="96">
       <c r="A38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="14">
-        <v>2.0699999999999998</v>
+        <v>66</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2.08</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="32">
       <c r="A39" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B39" s="8">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="32">
       <c r="A40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="8">
-        <v>2.09</v>
+        <v>66</v>
+      </c>
+      <c r="B40" s="14">
+        <v>2.1</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="32">
       <c r="A41" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B41" s="14">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="32">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="33" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B42" s="14">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="33" thickBot="1">
-      <c r="A43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="14">
-        <v>2.12</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A44" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:6" s="4" customFormat="1" ht="17" thickBot="1">
-      <c r="A45" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A43" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:6" s="4" customFormat="1" ht="17" thickBot="1">
+      <c r="A44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="5" customFormat="1" ht="32">
+      <c r="A45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3.01</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1" ht="32">
       <c r="A46" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B46" s="8">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" ht="32">
-      <c r="A47" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="8">
-        <v>3.02</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>149</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="5" customFormat="1">
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:6" s="5" customFormat="1">
       <c r="B48" s="8"/>
@@ -1935,15 +1918,12 @@
     </row>
     <row r="55" spans="2:2" s="5" customFormat="1">
       <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="2:2" s="5" customFormat="1">
-      <c r="B56" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A43:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
